--- a/outputs/San Juan DNA samples outstanding 2023.xlsx
+++ b/outputs/San Juan DNA samples outstanding 2023.xlsx
@@ -1,269 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDSONKA\Documents\ANALYSIS\Area20\A20\outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE468B71-E01B-49FA-A025-F6A319355035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$72</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>date collected</t>
-  </si>
-  <si>
-    <t>DNA vial</t>
-  </si>
-  <si>
-    <t>Results returned? 1=yes, 0=no</t>
-  </si>
-  <si>
-    <t>PFN beach seine</t>
-  </si>
-  <si>
-    <t>Q1206</t>
-  </si>
-  <si>
-    <t>Q1207</t>
-  </si>
-  <si>
-    <t>Q1208</t>
-  </si>
-  <si>
-    <t>Q1209</t>
-  </si>
-  <si>
-    <t>Q1210</t>
-  </si>
-  <si>
-    <t>Q1211</t>
-  </si>
-  <si>
-    <t>Q1212</t>
-  </si>
-  <si>
-    <t>Q1213</t>
-  </si>
-  <si>
-    <t>Q1214</t>
-  </si>
-  <si>
-    <t>Q1215</t>
-  </si>
-  <si>
-    <t>Q1151</t>
-  </si>
-  <si>
-    <t>Q1152</t>
-  </si>
-  <si>
-    <t>Q1153</t>
-  </si>
-  <si>
-    <t>Q1154</t>
-  </si>
-  <si>
-    <t>Q1155</t>
-  </si>
-  <si>
-    <t>Q1156</t>
-  </si>
-  <si>
-    <t>Q1157</t>
-  </si>
-  <si>
-    <t>Q1158</t>
-  </si>
-  <si>
-    <t>Q1159</t>
-  </si>
-  <si>
-    <t>Q1160</t>
-  </si>
-  <si>
-    <t>Q1161</t>
-  </si>
-  <si>
-    <t>Q1162</t>
-  </si>
-  <si>
-    <t>Q1163</t>
-  </si>
-  <si>
-    <t>Q1164</t>
-  </si>
-  <si>
-    <t>Q1165</t>
-  </si>
-  <si>
-    <t>CCFS purse seine</t>
-  </si>
-  <si>
-    <t>P9608</t>
-  </si>
-  <si>
-    <t>P9609</t>
-  </si>
-  <si>
-    <t>P9610</t>
-  </si>
-  <si>
-    <t>P9611</t>
-  </si>
-  <si>
-    <t>P9612</t>
-  </si>
-  <si>
-    <t>P9613</t>
-  </si>
-  <si>
-    <t>P9614</t>
-  </si>
-  <si>
-    <t>P9615</t>
-  </si>
-  <si>
-    <t>P9616</t>
-  </si>
-  <si>
-    <t>P9617</t>
-  </si>
-  <si>
-    <t>P9618</t>
-  </si>
-  <si>
-    <t>P9619</t>
-  </si>
-  <si>
-    <t>P9620</t>
-  </si>
-  <si>
-    <t>P9621</t>
-  </si>
-  <si>
-    <t>P9622</t>
-  </si>
-  <si>
-    <t>P9623</t>
-  </si>
-  <si>
-    <t>P9624</t>
-  </si>
-  <si>
-    <t>P9625</t>
-  </si>
-  <si>
-    <t>P9626</t>
-  </si>
-  <si>
-    <t>P9627</t>
-  </si>
-  <si>
-    <t>P9628</t>
-  </si>
-  <si>
-    <t>Q1166</t>
-  </si>
-  <si>
-    <t>Q1167</t>
-  </si>
-  <si>
-    <t>Q1168</t>
-  </si>
-  <si>
-    <t>Q1169</t>
-  </si>
-  <si>
-    <t>Q1170</t>
-  </si>
-  <si>
-    <t>Q1171</t>
-  </si>
-  <si>
-    <t>Q1172</t>
-  </si>
-  <si>
-    <t>Q1173</t>
-  </si>
-  <si>
-    <t>Q1174</t>
-  </si>
-  <si>
-    <t>Q1175</t>
-  </si>
-  <si>
-    <t>Q1176</t>
-  </si>
-  <si>
-    <t>Q1177</t>
-  </si>
-  <si>
-    <t>Q1178</t>
-  </si>
-  <si>
-    <t>Q1179</t>
-  </si>
-  <si>
-    <t>Q1180</t>
-  </si>
-  <si>
-    <t>Q1181</t>
-  </si>
-  <si>
-    <t>Q1182</t>
-  </si>
-  <si>
-    <t>Q1183</t>
-  </si>
-  <si>
-    <t>Q1184</t>
-  </si>
-  <si>
-    <t>Q1185</t>
-  </si>
-  <si>
-    <t>Q1186</t>
-  </si>
-  <si>
-    <t>Q1187</t>
-  </si>
-  <si>
-    <t>Q1188</t>
-  </si>
-  <si>
-    <t>P9630</t>
-  </si>
-  <si>
-    <t>P9632</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,14 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -366,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,1037 +354,1317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date collected</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DNA vial</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Results returned? 1=yes, 0=no</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B2" s="2">
         <v>45092</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Q1206</t>
+        </is>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B3" s="2">
         <v>45092</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q1207</t>
+        </is>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B4" s="2">
         <v>45092</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Q1208</t>
+        </is>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B5" s="2">
         <v>45092</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Q1209</t>
+        </is>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B6" s="2">
         <v>45092</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Q1210</t>
+        </is>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B7" s="2">
         <v>45092</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Q1211</t>
+        </is>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B8" s="2">
         <v>45092</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Q1212</t>
+        </is>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B9" s="2">
         <v>45092</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Q1213</t>
+        </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B10" s="2">
         <v>45092</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Q1214</t>
+        </is>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B11" s="2">
         <v>45092</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Q1215</t>
+        </is>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B12" s="2">
         <v>45093</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Q1151</t>
+        </is>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B13" s="2">
         <v>45093</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Q1152</t>
+        </is>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B14" s="2">
         <v>45093</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Q1153</t>
+        </is>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B15" s="2">
         <v>45093</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Q1154</t>
+        </is>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B16" s="2">
         <v>45093</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Q1155</t>
+        </is>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B17" s="2">
         <v>45093</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Q1156</t>
+        </is>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B18" s="2">
         <v>45093</v>
       </c>
-      <c r="C18" t="s">
-        <v>21</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Q1157</t>
+        </is>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B19" s="2">
         <v>45093</v>
       </c>
-      <c r="C19" t="s">
-        <v>22</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Q1158</t>
+        </is>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B20" s="2">
         <v>45093</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Q1159</t>
+        </is>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B21" s="2">
         <v>45093</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Q1160</t>
+        </is>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B22" s="2">
         <v>45093</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Q1161</t>
+        </is>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B23" s="2">
         <v>45093</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Q1162</t>
+        </is>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B24" s="2">
         <v>45093</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Q1163</t>
+        </is>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B25" s="2">
         <v>45093</v>
       </c>
-      <c r="C25" t="s">
-        <v>28</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Q1164</t>
+        </is>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PFN beach seine</t>
+        </is>
       </c>
       <c r="B26" s="2">
         <v>45093</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Q1165</t>
+        </is>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B27" s="2">
         <v>45114</v>
       </c>
-      <c r="C27" t="s">
-        <v>31</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>P9608</t>
+        </is>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B28" s="2">
         <v>45114</v>
       </c>
-      <c r="C28" t="s">
-        <v>32</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>P9609</t>
+        </is>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B29" s="2">
         <v>45114</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>P9610</t>
+        </is>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B30" s="2">
         <v>45114</v>
       </c>
-      <c r="C30" t="s">
-        <v>34</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>P9611</t>
+        </is>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B31" s="2">
         <v>45114</v>
       </c>
-      <c r="C31" t="s">
-        <v>35</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>P9612</t>
+        </is>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B32" s="2">
         <v>45114</v>
       </c>
-      <c r="C32" t="s">
-        <v>36</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>P9613</t>
+        </is>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B33" s="2">
         <v>45114</v>
       </c>
-      <c r="C33" t="s">
-        <v>37</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>P9614</t>
+        </is>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B34" s="2">
         <v>45114</v>
       </c>
-      <c r="C34" t="s">
-        <v>38</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>P9615</t>
+        </is>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>30</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B35" s="2">
         <v>45114</v>
       </c>
-      <c r="C35" t="s">
-        <v>39</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>P9616</t>
+        </is>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>30</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B36" s="2">
         <v>45114</v>
       </c>
-      <c r="C36" t="s">
-        <v>40</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>P9617</t>
+        </is>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B37" s="2">
         <v>45114</v>
       </c>
-      <c r="C37" t="s">
-        <v>41</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>P9618</t>
+        </is>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B38" s="2">
         <v>45114</v>
       </c>
-      <c r="C38" t="s">
-        <v>42</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>P9619</t>
+        </is>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B39" s="2">
         <v>45114</v>
       </c>
-      <c r="C39" t="s">
-        <v>43</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>P9620</t>
+        </is>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B40" s="2">
         <v>45114</v>
       </c>
-      <c r="C40" t="s">
-        <v>44</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>P9621</t>
+        </is>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B41" s="2">
         <v>45114</v>
       </c>
-      <c r="C41" t="s">
-        <v>45</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>P9622</t>
+        </is>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B42" s="2">
         <v>45114</v>
       </c>
-      <c r="C42" t="s">
-        <v>46</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>P9623</t>
+        </is>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>30</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B43" s="2">
         <v>45114</v>
       </c>
-      <c r="C43" t="s">
-        <v>47</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>P9624</t>
+        </is>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>30</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B44" s="2">
         <v>45114</v>
       </c>
-      <c r="C44" t="s">
-        <v>48</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>P9625</t>
+        </is>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B45" s="2">
         <v>45114</v>
       </c>
-      <c r="C45" t="s">
-        <v>49</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>P9626</t>
+        </is>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B46" s="2">
         <v>45114</v>
       </c>
-      <c r="C46" t="s">
-        <v>50</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>P9627</t>
+        </is>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>30</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B47" s="2">
         <v>45114</v>
       </c>
-      <c r="C47" t="s">
-        <v>51</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>P9628</t>
+        </is>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>30</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B48" s="2">
         <v>45127</v>
       </c>
-      <c r="C48" t="s">
-        <v>52</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Q1166</t>
+        </is>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>30</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B49" s="2">
         <v>45127</v>
       </c>
-      <c r="C49" t="s">
-        <v>53</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q1167</t>
+        </is>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>30</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B50" s="2">
         <v>45127</v>
       </c>
-      <c r="C50" t="s">
-        <v>54</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Q1168</t>
+        </is>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>30</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B51" s="2">
         <v>45127</v>
       </c>
-      <c r="C51" t="s">
-        <v>55</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Q1169</t>
+        </is>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>30</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B52" s="2">
         <v>45127</v>
       </c>
-      <c r="C52" t="s">
-        <v>56</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Q1170</t>
+        </is>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>30</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B53" s="2">
         <v>45127</v>
       </c>
-      <c r="C53" t="s">
-        <v>57</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Q1171</t>
+        </is>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>30</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B54" s="2">
         <v>45147</v>
       </c>
-      <c r="C54" t="s">
-        <v>58</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Q1172</t>
+        </is>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>30</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B55" s="2">
         <v>45147</v>
       </c>
-      <c r="C55" t="s">
-        <v>59</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Q1173</t>
+        </is>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>30</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B56" s="2">
         <v>45147</v>
       </c>
-      <c r="C56" t="s">
-        <v>60</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Q1174</t>
+        </is>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>30</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B57" s="2">
         <v>45147</v>
       </c>
-      <c r="C57" t="s">
-        <v>61</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Q1175</t>
+        </is>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>30</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B58" s="2">
         <v>45147</v>
       </c>
-      <c r="C58" t="s">
-        <v>62</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Q1176</t>
+        </is>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>30</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B59" s="2">
         <v>45147</v>
       </c>
-      <c r="C59" t="s">
-        <v>63</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q1177</t>
+        </is>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>30</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B60" s="2">
         <v>45147</v>
       </c>
-      <c r="C60" t="s">
-        <v>64</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q1178</t>
+        </is>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>30</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B61" s="2">
         <v>45147</v>
       </c>
-      <c r="C61" t="s">
-        <v>65</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q1179</t>
+        </is>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>30</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B62" s="2">
         <v>45147</v>
       </c>
-      <c r="C62" t="s">
-        <v>66</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q1180</t>
+        </is>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>30</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B63" s="2">
         <v>45147</v>
       </c>
-      <c r="C63" t="s">
-        <v>67</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q1181</t>
+        </is>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>30</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B64" s="2">
         <v>45147</v>
       </c>
-      <c r="C64" t="s">
-        <v>68</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q1182</t>
+        </is>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>30</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B65" s="2">
         <v>45147</v>
       </c>
-      <c r="C65" t="s">
-        <v>69</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q1183</t>
+        </is>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>30</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B66" s="2">
         <v>45147</v>
       </c>
-      <c r="C66" t="s">
-        <v>70</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q1184</t>
+        </is>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>30</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B67" s="2">
         <v>45147</v>
       </c>
-      <c r="C67" t="s">
-        <v>71</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q1185</t>
+        </is>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>30</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B68" s="2">
         <v>45147</v>
       </c>
-      <c r="C68" t="s">
-        <v>72</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q1186</t>
+        </is>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>30</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B69" s="2">
         <v>45147</v>
       </c>
-      <c r="C69" t="s">
-        <v>73</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q1187</t>
+        </is>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>30</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B70" s="2">
         <v>45147</v>
       </c>
-      <c r="C70" t="s">
-        <v>74</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q1188</t>
+        </is>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>30</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B71" s="2">
         <v>45161</v>
       </c>
-      <c r="C71" t="s">
-        <v>75</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>P9630</t>
+        </is>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>30</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CCFS purse seine</t>
+        </is>
       </c>
       <c r="B72" s="2">
         <v>45161</v>
       </c>
-      <c r="C72" t="s">
-        <v>76</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>P9632</t>
+        </is>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D72" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>